--- a/SPERT_Mobile_2a.xlsx
+++ b/SPERT_Mobile_2a.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPYDER\William\My Documents\Statistical PERT\Site Downloads\SPERT Normal\Mobile\Version 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\spert-mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE60581-C66E-4227-8441-FE84165D38CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F54F93-E286-4A76-9CF4-E59C7DA9662C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6405" windowHeight="11355" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPERT® Mobile" sheetId="1" r:id="rId1"/>
     <sheet name="VLookups" sheetId="2" r:id="rId2"/>
     <sheet name="Change Log" sheetId="3" r:id="rId3"/>
+    <sheet name="GNU GPL" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -132,7 +133,7 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -140,6 +141,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -150,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="578">
   <si>
     <t>Minimum</t>
   </si>
@@ -215,39 +217,12 @@
     <t>Download more FREE Statistical PERT templates</t>
   </si>
   <si>
-    <t>This spreadsheet file is a free spreadsheet template:</t>
-  </si>
-  <si>
-    <t>you can redistribute it and/or modify it under</t>
-  </si>
-  <si>
-    <t>the terms of the GNU General Public License</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as published by the Free Software Foundation, </t>
-  </si>
-  <si>
-    <t>either version 3 of the License, or</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (at your option) any later version.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This spreadsheet is distributed in the hope </t>
-  </si>
-  <si>
-    <t>that it will be useful, but WITHOUT ANY WARRANTY;</t>
-  </si>
-  <si>
     <t xml:space="preserve">or FITNESS FOR A PARTICULAR PURPOSE.  </t>
   </si>
   <si>
     <t>See the GNU General Public License for more details.</t>
   </si>
   <si>
-    <t>http://www.gnu.org/licenses/</t>
-  </si>
-  <si>
     <t>subjective terms, and each subjective</t>
   </si>
   <si>
@@ -257,9 +232,6 @@
     <t>Most Likely (ML)</t>
   </si>
   <si>
-    <t>without even the implied warranty of MERCHANTABILITY</t>
-  </si>
-  <si>
     <t>SPERT® Probability</t>
   </si>
   <si>
@@ -315,6 +287,1605 @@
   </si>
   <si>
     <t>The hidden rows below are used only to create the line Sparkline</t>
+  </si>
+  <si>
+    <t>Statistical PERT® is a free spreadsheet file; you</t>
+  </si>
+  <si>
+    <t>can redistribute it and/or modify it under the terms</t>
+  </si>
+  <si>
+    <t>of the GNU General Public License as published by</t>
+  </si>
+  <si>
+    <t>the Free Software Foundation, either version 3 of the</t>
+  </si>
+  <si>
+    <t>License, or (at your option) any later version.</t>
+  </si>
+  <si>
+    <t>Statistical PERT® and SPERT® are federally-</t>
+  </si>
+  <si>
+    <t>registered trademarks. If you modify this spreadsheet</t>
+  </si>
+  <si>
+    <t>in any material way, please remove the trademarked</t>
+  </si>
+  <si>
+    <t>names from the modified spreadsheet.</t>
+  </si>
+  <si>
+    <t>On both verbatim and modified copies of this file,</t>
+  </si>
+  <si>
+    <t>you must always retain the original copyright notice,</t>
+  </si>
+  <si>
+    <t>including the author's name, copyright year, and a</t>
+  </si>
+  <si>
+    <t>notice that this file is licensed under the GNU</t>
+  </si>
+  <si>
+    <t>General Public License.</t>
+  </si>
+  <si>
+    <t>This file is distributed in the hope that it will be</t>
+  </si>
+  <si>
+    <t>useful, but WITHOUT ANY WARRANTY; without</t>
+  </si>
+  <si>
+    <t>even the implied warranty of MERCHANTABILITY</t>
+  </si>
+  <si>
+    <t>https://www.gnu.org/licenses/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    GNU GENERAL PUBLIC LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Version 3, 29 June 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copyright (C) 2007 Free Software Foundation, Inc. &lt;https://fsf.org/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone is permitted to copy and distribute verbatim copies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of this license document, but changing it is not allowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Preamble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The GNU General Public License is a free, copyleft license for</t>
+  </si>
+  <si>
+    <t>software and other kinds of works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The licenses for most software and other practical works are designed</t>
+  </si>
+  <si>
+    <t>to take away your freedom to share and change the works.  By contrast,</t>
+  </si>
+  <si>
+    <t>the GNU General Public License is intended to guarantee your freedom to</t>
+  </si>
+  <si>
+    <t>share and change all versions of a program--to make sure it remains free</t>
+  </si>
+  <si>
+    <t>software for all its users.  We, the Free Software Foundation, use the</t>
+  </si>
+  <si>
+    <t>GNU General Public License for most of our software; it applies also to</t>
+  </si>
+  <si>
+    <t>any other work released this way by its authors.  You can apply it to</t>
+  </si>
+  <si>
+    <t>your programs, too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When we speak of free software, we are referring to freedom, not</t>
+  </si>
+  <si>
+    <t>price.  Our General Public Licenses are designed to make sure that you</t>
+  </si>
+  <si>
+    <t>have the freedom to distribute copies of free software (and charge for</t>
+  </si>
+  <si>
+    <t>them if you wish), that you receive source code or can get it if you</t>
+  </si>
+  <si>
+    <t>want it, that you can change the software or use pieces of it in new</t>
+  </si>
+  <si>
+    <t>free programs, and that you know you can do these things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To protect your rights, we need to prevent others from denying you</t>
+  </si>
+  <si>
+    <t>these rights or asking you to surrender the rights.  Therefore, you have</t>
+  </si>
+  <si>
+    <t>certain responsibilities if you distribute copies of the software, or if</t>
+  </si>
+  <si>
+    <t>you modify it: responsibilities to respect the freedom of others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For example, if you distribute copies of such a program, whether</t>
+  </si>
+  <si>
+    <t>gratis or for a fee, you must pass on to the recipients the same</t>
+  </si>
+  <si>
+    <t>freedoms that you received.  You must make sure that they, too, receive</t>
+  </si>
+  <si>
+    <t>or can get the source code.  And you must show them these terms so they</t>
+  </si>
+  <si>
+    <t>know their rights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Developers that use the GNU GPL protect your rights with two steps:</t>
+  </si>
+  <si>
+    <t>(1) assert copyright on the software, and (2) offer you this License</t>
+  </si>
+  <si>
+    <t>giving you legal permission to copy, distribute and/or modify it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For the developers' and authors' protection, the GPL clearly explains</t>
+  </si>
+  <si>
+    <t>that there is no warranty for this free software.  For both users' and</t>
+  </si>
+  <si>
+    <t>authors' sake, the GPL requires that modified versions be marked as</t>
+  </si>
+  <si>
+    <t>changed, so that their problems will not be attributed erroneously to</t>
+  </si>
+  <si>
+    <t>authors of previous versions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Some devices are designed to deny users access to install or run</t>
+  </si>
+  <si>
+    <t>modified versions of the software inside them, although the manufacturer</t>
+  </si>
+  <si>
+    <t>can do so.  This is fundamentally incompatible with the aim of</t>
+  </si>
+  <si>
+    <t>protecting users' freedom to change the software.  The systematic</t>
+  </si>
+  <si>
+    <t>pattern of such abuse occurs in the area of products for individuals to</t>
+  </si>
+  <si>
+    <t>use, which is precisely where it is most unacceptable.  Therefore, we</t>
+  </si>
+  <si>
+    <t>have designed this version of the GPL to prohibit the practice for those</t>
+  </si>
+  <si>
+    <t>products.  If such problems arise substantially in other domains, we</t>
+  </si>
+  <si>
+    <t>stand ready to extend this provision to those domains in future versions</t>
+  </si>
+  <si>
+    <t>of the GPL, as needed to protect the freedom of users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Finally, every program is threatened constantly by software patents.</t>
+  </si>
+  <si>
+    <t>States should not allow patents to restrict development and use of</t>
+  </si>
+  <si>
+    <t>software on general-purpose computers, but in those that do, we wish to</t>
+  </si>
+  <si>
+    <t>avoid the special danger that patents applied to a free program could</t>
+  </si>
+  <si>
+    <t>make it effectively proprietary.  To prevent this, the GPL assures that</t>
+  </si>
+  <si>
+    <t>patents cannot be used to render the program non-free.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The precise terms and conditions for copying, distribution and</t>
+  </si>
+  <si>
+    <t>modification follow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       TERMS AND CONDITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0. Definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "This License" refers to version 3 of the GNU General Public License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Copyright" also means copyright-like laws that apply to other kinds of</t>
+  </si>
+  <si>
+    <t>works, such as semiconductor masks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "The Program" refers to any copyrightable work licensed under this</t>
+  </si>
+  <si>
+    <t>License.  Each licensee is addressed as "you".  "Licensees" and</t>
+  </si>
+  <si>
+    <t>"recipients" may be individuals or organizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To "modify" a work means to copy from or adapt all or part of the work</t>
+  </si>
+  <si>
+    <t>in a fashion requiring copyright permission, other than the making of an</t>
+  </si>
+  <si>
+    <t>exact copy.  The resulting work is called a "modified version" of the</t>
+  </si>
+  <si>
+    <t>earlier work or a work "based on" the earlier work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A "covered work" means either the unmodified Program or a work based</t>
+  </si>
+  <si>
+    <t>on the Program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To "propagate" a work means to do anything with it that, without</t>
+  </si>
+  <si>
+    <t>permission, would make you directly or secondarily liable for</t>
+  </si>
+  <si>
+    <t>infringement under applicable copyright law, except executing it on a</t>
+  </si>
+  <si>
+    <t>computer or modifying a private copy.  Propagation includes copying,</t>
+  </si>
+  <si>
+    <t>distribution (with or without modification), making available to the</t>
+  </si>
+  <si>
+    <t>public, and in some countries other activities as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  To "convey" a work means any kind of propagation that enables other</t>
+  </si>
+  <si>
+    <t>parties to make or receive copies.  Mere interaction with a user through</t>
+  </si>
+  <si>
+    <t>a computer network, with no transfer of a copy, is not conveying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  An interactive user interface displays "Appropriate Legal Notices"</t>
+  </si>
+  <si>
+    <t>to the extent that it includes a convenient and prominently visible</t>
+  </si>
+  <si>
+    <t>feature that (1) displays an appropriate copyright notice, and (2)</t>
+  </si>
+  <si>
+    <t>tells the user that there is no warranty for the work (except to the</t>
+  </si>
+  <si>
+    <t>extent that warranties are provided), that licensees may convey the</t>
+  </si>
+  <si>
+    <t>work under this License, and how to view a copy of this License.  If</t>
+  </si>
+  <si>
+    <t>the interface presents a list of user commands or options, such as a</t>
+  </si>
+  <si>
+    <t>menu, a prominent item in the list meets this criterion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. Source Code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The "source code" for a work means the preferred form of the work</t>
+  </si>
+  <si>
+    <t>for making modifications to it.  "Object code" means any non-source</t>
+  </si>
+  <si>
+    <t>form of a work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A "Standard Interface" means an interface that either is an official</t>
+  </si>
+  <si>
+    <t>standard defined by a recognized standards body, or, in the case of</t>
+  </si>
+  <si>
+    <t>interfaces specified for a particular programming language, one that</t>
+  </si>
+  <si>
+    <t>is widely used among developers working in that language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The "System Libraries" of an executable work include anything, other</t>
+  </si>
+  <si>
+    <t>than the work as a whole, that (a) is included in the normal form of</t>
+  </si>
+  <si>
+    <t>packaging a Major Component, but which is not part of that Major</t>
+  </si>
+  <si>
+    <t>Component, and (b) serves only to enable use of the work with that</t>
+  </si>
+  <si>
+    <t>Major Component, or to implement a Standard Interface for which an</t>
+  </si>
+  <si>
+    <t>implementation is available to the public in source code form.  A</t>
+  </si>
+  <si>
+    <t>"Major Component", in this context, means a major essential component</t>
+  </si>
+  <si>
+    <t>(kernel, window system, and so on) of the specific operating system</t>
+  </si>
+  <si>
+    <t>(if any) on which the executable work runs, or a compiler used to</t>
+  </si>
+  <si>
+    <t>produce the work, or an object code interpreter used to run it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The "Corresponding Source" for a work in object code form means all</t>
+  </si>
+  <si>
+    <t>the source code needed to generate, install, and (for an executable</t>
+  </si>
+  <si>
+    <t>work) run the object code and to modify the work, including scripts to</t>
+  </si>
+  <si>
+    <t>control those activities.  However, it does not include the work's</t>
+  </si>
+  <si>
+    <t>System Libraries, or general-purpose tools or generally available free</t>
+  </si>
+  <si>
+    <t>programs which are used unmodified in performing those activities but</t>
+  </si>
+  <si>
+    <t>which are not part of the work.  For example, Corresponding Source</t>
+  </si>
+  <si>
+    <t>includes interface definition files associated with source files for</t>
+  </si>
+  <si>
+    <t>the work, and the source code for shared libraries and dynamically</t>
+  </si>
+  <si>
+    <t>linked subprograms that the work is specifically designed to require,</t>
+  </si>
+  <si>
+    <t>such as by intimate data communication or control flow between those</t>
+  </si>
+  <si>
+    <t>subprograms and other parts of the work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Corresponding Source need not include anything that users</t>
+  </si>
+  <si>
+    <t>can regenerate automatically from other parts of the Corresponding</t>
+  </si>
+  <si>
+    <t>Source.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Corresponding Source for a work in source code form is that</t>
+  </si>
+  <si>
+    <t>same work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. Basic Permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All rights granted under this License are granted for the term of</t>
+  </si>
+  <si>
+    <t>copyright on the Program, and are irrevocable provided the stated</t>
+  </si>
+  <si>
+    <t>conditions are met.  This License explicitly affirms your unlimited</t>
+  </si>
+  <si>
+    <t>permission to run the unmodified Program.  The output from running a</t>
+  </si>
+  <si>
+    <t>covered work is covered by this License only if the output, given its</t>
+  </si>
+  <si>
+    <t>content, constitutes a covered work.  This License acknowledges your</t>
+  </si>
+  <si>
+    <t>rights of fair use or other equivalent, as provided by copyright law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may make, run and propagate covered works that you do not</t>
+  </si>
+  <si>
+    <t>convey, without conditions so long as your license otherwise remains</t>
+  </si>
+  <si>
+    <t>in force.  You may convey covered works to others for the sole purpose</t>
+  </si>
+  <si>
+    <t>of having them make modifications exclusively for you, or provide you</t>
+  </si>
+  <si>
+    <t>with facilities for running those works, provided that you comply with</t>
+  </si>
+  <si>
+    <t>the terms of this License in conveying all material for which you do</t>
+  </si>
+  <si>
+    <t>not control copyright.  Those thus making or running the covered works</t>
+  </si>
+  <si>
+    <t>for you must do so exclusively on your behalf, under your direction</t>
+  </si>
+  <si>
+    <t>and control, on terms that prohibit them from making any copies of</t>
+  </si>
+  <si>
+    <t>your copyrighted material outside their relationship with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Conveying under any other circumstances is permitted solely under</t>
+  </si>
+  <si>
+    <t>the conditions stated below.  Sublicensing is not allowed; section 10</t>
+  </si>
+  <si>
+    <t>makes it unnecessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3. Protecting Users' Legal Rights From Anti-Circumvention Law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No covered work shall be deemed part of an effective technological</t>
+  </si>
+  <si>
+    <t>measure under any applicable law fulfilling obligations under article</t>
+  </si>
+  <si>
+    <t>11 of the WIPO copyright treaty adopted on 20 December 1996, or</t>
+  </si>
+  <si>
+    <t>similar laws prohibiting or restricting circumvention of such</t>
+  </si>
+  <si>
+    <t>measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When you convey a covered work, you waive any legal power to forbid</t>
+  </si>
+  <si>
+    <t>circumvention of technological measures to the extent such circumvention</t>
+  </si>
+  <si>
+    <t>is effected by exercising rights under this License with respect to</t>
+  </si>
+  <si>
+    <t>the covered work, and you disclaim any intention to limit operation or</t>
+  </si>
+  <si>
+    <t>modification of the work as a means of enforcing, against the work's</t>
+  </si>
+  <si>
+    <t>users, your or third parties' legal rights to forbid circumvention of</t>
+  </si>
+  <si>
+    <t>technological measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. Conveying Verbatim Copies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may convey verbatim copies of the Program's source code as you</t>
+  </si>
+  <si>
+    <t>receive it, in any medium, provided that you conspicuously and</t>
+  </si>
+  <si>
+    <t>appropriately publish on each copy an appropriate copyright notice;</t>
+  </si>
+  <si>
+    <t>keep intact all notices stating that this License and any</t>
+  </si>
+  <si>
+    <t>non-permissive terms added in accord with section 7 apply to the code;</t>
+  </si>
+  <si>
+    <t>keep intact all notices of the absence of any warranty; and give all</t>
+  </si>
+  <si>
+    <t>recipients a copy of this License along with the Program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may charge any price or no price for each copy that you convey,</t>
+  </si>
+  <si>
+    <t>and you may offer support or warranty protection for a fee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. Conveying Modified Source Versions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may convey a work based on the Program, or the modifications to</t>
+  </si>
+  <si>
+    <t>produce it from the Program, in the form of source code under the</t>
+  </si>
+  <si>
+    <t>terms of section 4, provided that you also meet all of these conditions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a) The work must carry prominent notices stating that you modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    it, and giving a relevant date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    b) The work must carry prominent notices stating that it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    released under this License and any conditions added under section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7.  This requirement modifies the requirement in section 4 to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "keep intact all notices".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c) You must license the entire work, as a whole, under this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    License to anyone who comes into possession of a copy.  This</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    License will therefore apply, along with any applicable section 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    additional terms, to the whole of the work, and all its parts,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    regardless of how they are packaged.  This License gives no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    permission to license the work in any other way, but it does not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    invalidate such permission if you have separately received it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    d) If the work has interactive user interfaces, each must display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Appropriate Legal Notices; however, if the Program has interactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    interfaces that do not display Appropriate Legal Notices, your</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    work need not make them do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A compilation of a covered work with other separate and independent</t>
+  </si>
+  <si>
+    <t>works, which are not by their nature extensions of the covered work,</t>
+  </si>
+  <si>
+    <t>and which are not combined with it such as to form a larger program,</t>
+  </si>
+  <si>
+    <t>in or on a volume of a storage or distribution medium, is called an</t>
+  </si>
+  <si>
+    <t>"aggregate" if the compilation and its resulting copyright are not</t>
+  </si>
+  <si>
+    <t>used to limit the access or legal rights of the compilation's users</t>
+  </si>
+  <si>
+    <t>beyond what the individual works permit.  Inclusion of a covered work</t>
+  </si>
+  <si>
+    <t>in an aggregate does not cause this License to apply to the other</t>
+  </si>
+  <si>
+    <t>parts of the aggregate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6. Conveying Non-Source Forms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may convey a covered work in object code form under the terms</t>
+  </si>
+  <si>
+    <t>of sections 4 and 5, provided that you also convey the</t>
+  </si>
+  <si>
+    <t>machine-readable Corresponding Source under the terms of this License,</t>
+  </si>
+  <si>
+    <t>in one of these ways:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a) Convey the object code in, or embodied in, a physical product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (including a physical distribution medium), accompanied by the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source fixed on a durable physical medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    customarily used for software interchange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    b) Convey the object code in, or embodied in, a physical product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (including a physical distribution medium), accompanied by a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    written offer, valid for at least three years and valid for as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    long as you offer spare parts or customer support for that product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    model, to give anyone who possesses the object code either (1) a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    copy of the Corresponding Source for all the software in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    product that is covered by this License, on a durable physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    medium customarily used for software interchange, for a price no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    more than your reasonable cost of physically performing this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    conveying of source, or (2) access to copy the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source from a network server at no charge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c) Convey individual copies of the object code with a copy of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    written offer to provide the Corresponding Source.  This</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    alternative is allowed only occasionally and noncommercially, and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    only if you received the object code with such an offer, in accord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    with subsection 6b.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    d) Convey the object code by offering access from a designated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    place (gratis or for a charge), and offer equivalent access to the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source in the same way through the same place at no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    further charge.  You need not require recipients to copy the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source along with the object code.  If the place to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    copy the object code is a network server, the Corresponding Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    may be on a different server (operated by you or a third party)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    that supports equivalent copying facilities, provided you maintain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    clear directions next to the object code saying where to find the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source.  Regardless of what server hosts the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Corresponding Source, you remain obligated to ensure that it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    available for as long as needed to satisfy these requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    e) Convey the object code using peer-to-peer transmission, provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    you inform other peers where the object code and Corresponding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Source of the work are being offered to the general public at no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    charge under subsection 6d.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A separable portion of the object code, whose source code is excluded</t>
+  </si>
+  <si>
+    <t>from the Corresponding Source as a System Library, need not be</t>
+  </si>
+  <si>
+    <t>included in conveying the object code work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A "User Product" is either (1) a "consumer product", which means any</t>
+  </si>
+  <si>
+    <t>tangible personal property which is normally used for personal, family,</t>
+  </si>
+  <si>
+    <t>or household purposes, or (2) anything designed or sold for incorporation</t>
+  </si>
+  <si>
+    <t>into a dwelling.  In determining whether a product is a consumer product,</t>
+  </si>
+  <si>
+    <t>doubtful cases shall be resolved in favor of coverage.  For a particular</t>
+  </si>
+  <si>
+    <t>product received by a particular user, "normally used" refers to a</t>
+  </si>
+  <si>
+    <t>typical or common use of that class of product, regardless of the status</t>
+  </si>
+  <si>
+    <t>of the particular user or of the way in which the particular user</t>
+  </si>
+  <si>
+    <t>actually uses, or expects or is expected to use, the product.  A product</t>
+  </si>
+  <si>
+    <t>is a consumer product regardless of whether the product has substantial</t>
+  </si>
+  <si>
+    <t>commercial, industrial or non-consumer uses, unless such uses represent</t>
+  </si>
+  <si>
+    <t>the only significant mode of use of the product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Installation Information" for a User Product means any methods,</t>
+  </si>
+  <si>
+    <t>procedures, authorization keys, or other information required to install</t>
+  </si>
+  <si>
+    <t>and execute modified versions of a covered work in that User Product from</t>
+  </si>
+  <si>
+    <t>a modified version of its Corresponding Source.  The information must</t>
+  </si>
+  <si>
+    <t>suffice to ensure that the continued functioning of the modified object</t>
+  </si>
+  <si>
+    <t>code is in no case prevented or interfered with solely because</t>
+  </si>
+  <si>
+    <t>modification has been made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you convey an object code work under this section in, or with, or</t>
+  </si>
+  <si>
+    <t>specifically for use in, a User Product, and the conveying occurs as</t>
+  </si>
+  <si>
+    <t>part of a transaction in which the right of possession and use of the</t>
+  </si>
+  <si>
+    <t>User Product is transferred to the recipient in perpetuity or for a</t>
+  </si>
+  <si>
+    <t>fixed term (regardless of how the transaction is characterized), the</t>
+  </si>
+  <si>
+    <t>Corresponding Source conveyed under this section must be accompanied</t>
+  </si>
+  <si>
+    <t>by the Installation Information.  But this requirement does not apply</t>
+  </si>
+  <si>
+    <t>if neither you nor any third party retains the ability to install</t>
+  </si>
+  <si>
+    <t>modified object code on the User Product (for example, the work has</t>
+  </si>
+  <si>
+    <t>been installed in ROM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The requirement to provide Installation Information does not include a</t>
+  </si>
+  <si>
+    <t>requirement to continue to provide support service, warranty, or updates</t>
+  </si>
+  <si>
+    <t>for a work that has been modified or installed by the recipient, or for</t>
+  </si>
+  <si>
+    <t>the User Product in which it has been modified or installed.  Access to a</t>
+  </si>
+  <si>
+    <t>network may be denied when the modification itself materially and</t>
+  </si>
+  <si>
+    <t>adversely affects the operation of the network or violates the rules and</t>
+  </si>
+  <si>
+    <t>protocols for communication across the network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Corresponding Source conveyed, and Installation Information provided,</t>
+  </si>
+  <si>
+    <t>in accord with this section must be in a format that is publicly</t>
+  </si>
+  <si>
+    <t>documented (and with an implementation available to the public in</t>
+  </si>
+  <si>
+    <t>source code form), and must require no special password or key for</t>
+  </si>
+  <si>
+    <t>unpacking, reading or copying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7. Additional Terms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Additional permissions" are terms that supplement the terms of this</t>
+  </si>
+  <si>
+    <t>License by making exceptions from one or more of its conditions.</t>
+  </si>
+  <si>
+    <t>Additional permissions that are applicable to the entire Program shall</t>
+  </si>
+  <si>
+    <t>be treated as though they were included in this License, to the extent</t>
+  </si>
+  <si>
+    <t>that they are valid under applicable law.  If additional permissions</t>
+  </si>
+  <si>
+    <t>apply only to part of the Program, that part may be used separately</t>
+  </si>
+  <si>
+    <t>under those permissions, but the entire Program remains governed by</t>
+  </si>
+  <si>
+    <t>this License without regard to the additional permissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When you convey a copy of a covered work, you may at your option</t>
+  </si>
+  <si>
+    <t>remove any additional permissions from that copy, or from any part of</t>
+  </si>
+  <si>
+    <t>it.  (Additional permissions may be written to require their own</t>
+  </si>
+  <si>
+    <t>removal in certain cases when you modify the work.)  You may place</t>
+  </si>
+  <si>
+    <t>additional permissions on material, added by you to a covered work,</t>
+  </si>
+  <si>
+    <t>for which you have or can give appropriate copyright permission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Notwithstanding any other provision of this License, for material you</t>
+  </si>
+  <si>
+    <t>add to a covered work, you may (if authorized by the copyright holders of</t>
+  </si>
+  <si>
+    <t>that material) supplement the terms of this License with terms:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a) Disclaiming warranty or limiting liability differently from the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    terms of sections 15 and 16 of this License; or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    b) Requiring preservation of specified reasonable legal notices or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    author attributions in that material or in the Appropriate Legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Notices displayed by works containing it; or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    c) Prohibiting misrepresentation of the origin of that material, or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    requiring that modified versions of such material be marked in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    reasonable ways as different from the original version; or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    d) Limiting the use for publicity purposes of names of licensors or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    authors of the material; or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    e) Declining to grant rights under trademark law for use of some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    trade names, trademarks, or service marks; or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    f) Requiring indemnification of licensors and authors of that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    material by anyone who conveys the material (or modified versions of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    it) with contractual assumptions of liability to the recipient, for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    any liability that these contractual assumptions directly impose on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    those licensors and authors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  All other non-permissive additional terms are considered "further</t>
+  </si>
+  <si>
+    <t>restrictions" within the meaning of section 10.  If the Program as you</t>
+  </si>
+  <si>
+    <t>received it, or any part of it, contains a notice stating that it is</t>
+  </si>
+  <si>
+    <t>governed by this License along with a term that is a further</t>
+  </si>
+  <si>
+    <t>restriction, you may remove that term.  If a license document contains</t>
+  </si>
+  <si>
+    <t>a further restriction but permits relicensing or conveying under this</t>
+  </si>
+  <si>
+    <t>License, you may add to a covered work material governed by the terms</t>
+  </si>
+  <si>
+    <t>of that license document, provided that the further restriction does</t>
+  </si>
+  <si>
+    <t>not survive such relicensing or conveying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you add terms to a covered work in accord with this section, you</t>
+  </si>
+  <si>
+    <t>must place, in the relevant source files, a statement of the</t>
+  </si>
+  <si>
+    <t>additional terms that apply to those files, or a notice indicating</t>
+  </si>
+  <si>
+    <t>where to find the applicable terms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Additional terms, permissive or non-permissive, may be stated in the</t>
+  </si>
+  <si>
+    <t>form of a separately written license, or stated as exceptions;</t>
+  </si>
+  <si>
+    <t>the above requirements apply either way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8. Termination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may not propagate or modify a covered work except as expressly</t>
+  </si>
+  <si>
+    <t>provided under this License.  Any attempt otherwise to propagate or</t>
+  </si>
+  <si>
+    <t>modify it is void, and will automatically terminate your rights under</t>
+  </si>
+  <si>
+    <t>this License (including any patent licenses granted under the third</t>
+  </si>
+  <si>
+    <t>paragraph of section 11).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  However, if you cease all violation of this License, then your</t>
+  </si>
+  <si>
+    <t>license from a particular copyright holder is reinstated (a)</t>
+  </si>
+  <si>
+    <t>provisionally, unless and until the copyright holder explicitly and</t>
+  </si>
+  <si>
+    <t>finally terminates your license, and (b) permanently, if the copyright</t>
+  </si>
+  <si>
+    <t>holder fails to notify you of the violation by some reasonable means</t>
+  </si>
+  <si>
+    <t>prior to 60 days after the cessation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Moreover, your license from a particular copyright holder is</t>
+  </si>
+  <si>
+    <t>reinstated permanently if the copyright holder notifies you of the</t>
+  </si>
+  <si>
+    <t>violation by some reasonable means, this is the first time you have</t>
+  </si>
+  <si>
+    <t>received notice of violation of this License (for any work) from that</t>
+  </si>
+  <si>
+    <t>copyright holder, and you cure the violation prior to 30 days after</t>
+  </si>
+  <si>
+    <t>your receipt of the notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Termination of your rights under this section does not terminate the</t>
+  </si>
+  <si>
+    <t>licenses of parties who have received copies or rights from you under</t>
+  </si>
+  <si>
+    <t>this License.  If your rights have been terminated and not permanently</t>
+  </si>
+  <si>
+    <t>reinstated, you do not qualify to receive new licenses for the same</t>
+  </si>
+  <si>
+    <t>material under section 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9. Acceptance Not Required for Having Copies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You are not required to accept this License in order to receive or</t>
+  </si>
+  <si>
+    <t>run a copy of the Program.  Ancillary propagation of a covered work</t>
+  </si>
+  <si>
+    <t>occurring solely as a consequence of using peer-to-peer transmission</t>
+  </si>
+  <si>
+    <t>to receive a copy likewise does not require acceptance.  However,</t>
+  </si>
+  <si>
+    <t>nothing other than this License grants you permission to propagate or</t>
+  </si>
+  <si>
+    <t>modify any covered work.  These actions infringe copyright if you do</t>
+  </si>
+  <si>
+    <t>not accept this License.  Therefore, by modifying or propagating a</t>
+  </si>
+  <si>
+    <t>covered work, you indicate your acceptance of this License to do so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10. Automatic Licensing of Downstream Recipients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Each time you convey a covered work, the recipient automatically</t>
+  </si>
+  <si>
+    <t>receives a license from the original licensors, to run, modify and</t>
+  </si>
+  <si>
+    <t>propagate that work, subject to this License.  You are not responsible</t>
+  </si>
+  <si>
+    <t>for enforcing compliance by third parties with this License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  An "entity transaction" is a transaction transferring control of an</t>
+  </si>
+  <si>
+    <t>organization, or substantially all assets of one, or subdividing an</t>
+  </si>
+  <si>
+    <t>organization, or merging organizations.  If propagation of a covered</t>
+  </si>
+  <si>
+    <t>work results from an entity transaction, each party to that</t>
+  </si>
+  <si>
+    <t>transaction who receives a copy of the work also receives whatever</t>
+  </si>
+  <si>
+    <t>licenses to the work the party's predecessor in interest had or could</t>
+  </si>
+  <si>
+    <t>give under the previous paragraph, plus a right to possession of the</t>
+  </si>
+  <si>
+    <t>Corresponding Source of the work from the predecessor in interest, if</t>
+  </si>
+  <si>
+    <t>the predecessor has it or can get it with reasonable efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You may not impose any further restrictions on the exercise of the</t>
+  </si>
+  <si>
+    <t>rights granted or affirmed under this License.  For example, you may</t>
+  </si>
+  <si>
+    <t>not impose a license fee, royalty, or other charge for exercise of</t>
+  </si>
+  <si>
+    <t>rights granted under this License, and you may not initiate litigation</t>
+  </si>
+  <si>
+    <t>(including a cross-claim or counterclaim in a lawsuit) alleging that</t>
+  </si>
+  <si>
+    <t>any patent claim is infringed by making, using, selling, offering for</t>
+  </si>
+  <si>
+    <t>sale, or importing the Program or any portion of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11. Patents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A "contributor" is a copyright holder who authorizes use under this</t>
+  </si>
+  <si>
+    <t>License of the Program or a work on which the Program is based.  The</t>
+  </si>
+  <si>
+    <t>work thus licensed is called the contributor's "contributor version".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A contributor's "essential patent claims" are all patent claims</t>
+  </si>
+  <si>
+    <t>owned or controlled by the contributor, whether already acquired or</t>
+  </si>
+  <si>
+    <t>hereafter acquired, that would be infringed by some manner, permitted</t>
+  </si>
+  <si>
+    <t>by this License, of making, using, or selling its contributor version,</t>
+  </si>
+  <si>
+    <t>but do not include claims that would be infringed only as a</t>
+  </si>
+  <si>
+    <t>consequence of further modification of the contributor version.  For</t>
+  </si>
+  <si>
+    <t>purposes of this definition, "control" includes the right to grant</t>
+  </si>
+  <si>
+    <t>patent sublicenses in a manner consistent with the requirements of</t>
+  </si>
+  <si>
+    <t>this License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Each contributor grants you a non-exclusive, worldwide, royalty-free</t>
+  </si>
+  <si>
+    <t>patent license under the contributor's essential patent claims, to</t>
+  </si>
+  <si>
+    <t>make, use, sell, offer for sale, import and otherwise run, modify and</t>
+  </si>
+  <si>
+    <t>propagate the contents of its contributor version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  In the following three paragraphs, a "patent license" is any express</t>
+  </si>
+  <si>
+    <t>agreement or commitment, however denominated, not to enforce a patent</t>
+  </si>
+  <si>
+    <t>(such as an express permission to practice a patent or covenant not to</t>
+  </si>
+  <si>
+    <t>sue for patent infringement).  To "grant" such a patent license to a</t>
+  </si>
+  <si>
+    <t>party means to make such an agreement or commitment not to enforce a</t>
+  </si>
+  <si>
+    <t>patent against the party.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you convey a covered work, knowingly relying on a patent license,</t>
+  </si>
+  <si>
+    <t>and the Corresponding Source of the work is not available for anyone</t>
+  </si>
+  <si>
+    <t>to copy, free of charge and under the terms of this License, through a</t>
+  </si>
+  <si>
+    <t>publicly available network server or other readily accessible means,</t>
+  </si>
+  <si>
+    <t>then you must either (1) cause the Corresponding Source to be so</t>
+  </si>
+  <si>
+    <t>available, or (2) arrange to deprive yourself of the benefit of the</t>
+  </si>
+  <si>
+    <t>patent license for this particular work, or (3) arrange, in a manner</t>
+  </si>
+  <si>
+    <t>consistent with the requirements of this License, to extend the patent</t>
+  </si>
+  <si>
+    <t>license to downstream recipients.  "Knowingly relying" means you have</t>
+  </si>
+  <si>
+    <t>actual knowledge that, but for the patent license, your conveying the</t>
+  </si>
+  <si>
+    <t>covered work in a country, or your recipient's use of the covered work</t>
+  </si>
+  <si>
+    <t>in a country, would infringe one or more identifiable patents in that</t>
+  </si>
+  <si>
+    <t>country that you have reason to believe are valid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If, pursuant to or in connection with a single transaction or</t>
+  </si>
+  <si>
+    <t>arrangement, you convey, or propagate by procuring conveyance of, a</t>
+  </si>
+  <si>
+    <t>covered work, and grant a patent license to some of the parties</t>
+  </si>
+  <si>
+    <t>receiving the covered work authorizing them to use, propagate, modify</t>
+  </si>
+  <si>
+    <t>or convey a specific copy of the covered work, then the patent license</t>
+  </si>
+  <si>
+    <t>you grant is automatically extended to all recipients of the covered</t>
+  </si>
+  <si>
+    <t>work and works based on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A patent license is "discriminatory" if it does not include within</t>
+  </si>
+  <si>
+    <t>the scope of its coverage, prohibits the exercise of, or is</t>
+  </si>
+  <si>
+    <t>conditioned on the non-exercise of one or more of the rights that are</t>
+  </si>
+  <si>
+    <t>specifically granted under this License.  You may not convey a covered</t>
+  </si>
+  <si>
+    <t>work if you are a party to an arrangement with a third party that is</t>
+  </si>
+  <si>
+    <t>in the business of distributing software, under which you make payment</t>
+  </si>
+  <si>
+    <t>to the third party based on the extent of your activity of conveying</t>
+  </si>
+  <si>
+    <t>the work, and under which the third party grants, to any of the</t>
+  </si>
+  <si>
+    <t>parties who would receive the covered work from you, a discriminatory</t>
+  </si>
+  <si>
+    <t>patent license (a) in connection with copies of the covered work</t>
+  </si>
+  <si>
+    <t>conveyed by you (or copies made from those copies), or (b) primarily</t>
+  </si>
+  <si>
+    <t>for and in connection with specific products or compilations that</t>
+  </si>
+  <si>
+    <t>contain the covered work, unless you entered into that arrangement,</t>
+  </si>
+  <si>
+    <t>or that patent license was granted, prior to 28 March 2007.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Nothing in this License shall be construed as excluding or limiting</t>
+  </si>
+  <si>
+    <t>any implied license or other defenses to infringement that may</t>
+  </si>
+  <si>
+    <t>otherwise be available to you under applicable patent law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12. No Surrender of Others' Freedom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If conditions are imposed on you (whether by court order, agreement or</t>
+  </si>
+  <si>
+    <t>otherwise) that contradict the conditions of this License, they do not</t>
+  </si>
+  <si>
+    <t>excuse you from the conditions of this License.  If you cannot convey a</t>
+  </si>
+  <si>
+    <t>covered work so as to satisfy simultaneously your obligations under this</t>
+  </si>
+  <si>
+    <t>License and any other pertinent obligations, then as a consequence you may</t>
+  </si>
+  <si>
+    <t>not convey it at all.  For example, if you agree to terms that obligate you</t>
+  </si>
+  <si>
+    <t>to collect a royalty for further conveying from those to whom you convey</t>
+  </si>
+  <si>
+    <t>the Program, the only way you could satisfy both those terms and this</t>
+  </si>
+  <si>
+    <t>License would be to refrain entirely from conveying the Program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13. Use with the GNU Affero General Public License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Notwithstanding any other provision of this License, you have</t>
+  </si>
+  <si>
+    <t>permission to link or combine any covered work with a work licensed</t>
+  </si>
+  <si>
+    <t>under version 3 of the GNU Affero General Public License into a single</t>
+  </si>
+  <si>
+    <t>combined work, and to convey the resulting work.  The terms of this</t>
+  </si>
+  <si>
+    <t>License will continue to apply to the part which is the covered work,</t>
+  </si>
+  <si>
+    <t>but the special requirements of the GNU Affero General Public License,</t>
+  </si>
+  <si>
+    <t>section 13, concerning interaction through a network will apply to the</t>
+  </si>
+  <si>
+    <t>combination as such.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  14. Revised Versions of this License.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Free Software Foundation may publish revised and/or new versions of</t>
+  </si>
+  <si>
+    <t>the GNU General Public License from time to time.  Such new versions will</t>
+  </si>
+  <si>
+    <t>be similar in spirit to the present version, but may differ in detail to</t>
+  </si>
+  <si>
+    <t>address new problems or concerns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Each version is given a distinguishing version number.  If the</t>
+  </si>
+  <si>
+    <t>Program specifies that a certain numbered version of the GNU General</t>
+  </si>
+  <si>
+    <t>Public License "or any later version" applies to it, you have the</t>
+  </si>
+  <si>
+    <t>option of following the terms and conditions either of that numbered</t>
+  </si>
+  <si>
+    <t>version or of any later version published by the Free Software</t>
+  </si>
+  <si>
+    <t>Foundation.  If the Program does not specify a version number of the</t>
+  </si>
+  <si>
+    <t>GNU General Public License, you may choose any version ever published</t>
+  </si>
+  <si>
+    <t>by the Free Software Foundation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If the Program specifies that a proxy can decide which future</t>
+  </si>
+  <si>
+    <t>versions of the GNU General Public License can be used, that proxy's</t>
+  </si>
+  <si>
+    <t>public statement of acceptance of a version permanently authorizes you</t>
+  </si>
+  <si>
+    <t>to choose that version for the Program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Later license versions may give you additional or different</t>
+  </si>
+  <si>
+    <t>permissions.  However, no additional obligations are imposed on any</t>
+  </si>
+  <si>
+    <t>author or copyright holder as a result of your choosing to follow a</t>
+  </si>
+  <si>
+    <t>later version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15. Disclaimer of Warranty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  THERE IS NO WARRANTY FOR THE PROGRAM, TO THE EXTENT PERMITTED BY</t>
+  </si>
+  <si>
+    <t>APPLICABLE LAW.  EXCEPT WHEN OTHERWISE STATED IN WRITING THE COPYRIGHT</t>
+  </si>
+  <si>
+    <t>HOLDERS AND/OR OTHER PARTIES PROVIDE THE PROGRAM "AS IS" WITHOUT WARRANTY</t>
+  </si>
+  <si>
+    <t>OF ANY KIND, EITHER EXPRESSED OR IMPLIED, INCLUDING, BUT NOT LIMITED TO,</t>
+  </si>
+  <si>
+    <t>THE IMPLIED WARRANTIES OF MERCHANTABILITY AND FITNESS FOR A PARTICULAR</t>
+  </si>
+  <si>
+    <t>PURPOSE.  THE ENTIRE RISK AS TO THE QUALITY AND PERFORMANCE OF THE PROGRAM</t>
+  </si>
+  <si>
+    <t>IS WITH YOU.  SHOULD THE PROGRAM PROVE DEFECTIVE, YOU ASSUME THE COST OF</t>
+  </si>
+  <si>
+    <t>ALL NECESSARY SERVICING, REPAIR OR CORRECTION.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16. Limitation of Liability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IN NO EVENT UNLESS REQUIRED BY APPLICABLE LAW OR AGREED TO IN WRITING</t>
+  </si>
+  <si>
+    <t>WILL ANY COPYRIGHT HOLDER, OR ANY OTHER PARTY WHO MODIFIES AND/OR CONVEYS</t>
+  </si>
+  <si>
+    <t>THE PROGRAM AS PERMITTED ABOVE, BE LIABLE TO YOU FOR DAMAGES, INCLUDING ANY</t>
+  </si>
+  <si>
+    <t>GENERAL, SPECIAL, INCIDENTAL OR CONSEQUENTIAL DAMAGES ARISING OUT OF THE</t>
+  </si>
+  <si>
+    <t>USE OR INABILITY TO USE THE PROGRAM (INCLUDING BUT NOT LIMITED TO LOSS OF</t>
+  </si>
+  <si>
+    <t>DATA OR DATA BEING RENDERED INACCURATE OR LOSSES SUSTAINED BY YOU OR THIRD</t>
+  </si>
+  <si>
+    <t>PARTIES OR A FAILURE OF THE PROGRAM TO OPERATE WITH ANY OTHER PROGRAMS),</t>
+  </si>
+  <si>
+    <t>EVEN IF SUCH HOLDER OR OTHER PARTY HAS BEEN ADVISED OF THE POSSIBILITY OF</t>
+  </si>
+  <si>
+    <t>SUCH DAMAGES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17. Interpretation of Sections 15 and 16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If the disclaimer of warranty and limitation of liability provided</t>
+  </si>
+  <si>
+    <t>above cannot be given local legal effect according to their terms,</t>
+  </si>
+  <si>
+    <t>reviewing courts shall apply local law that most closely approximates</t>
+  </si>
+  <si>
+    <t>an absolute waiver of all civil liability in connection with the</t>
+  </si>
+  <si>
+    <t>Program, unless a warranty or assumption of liability accompanies a</t>
+  </si>
+  <si>
+    <t>copy of the Program in return for a fee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     END OF TERMS AND CONDITIONS</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Added the full text of the GNU GPL and updated the footer information.</t>
   </si>
 </sst>
 </file>
@@ -416,14 +1987,6 @@
     </font>
     <font>
       <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -486,6 +2049,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -620,17 +2189,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,7 +2207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -647,31 +2216,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="37" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="20" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1022,9 +2591,9 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1038,22 +2607,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="39">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="40">
+        <v>25</v>
+      </c>
+      <c r="B3" s="39">
         <v>12000</v>
       </c>
     </row>
@@ -1061,7 +2630,7 @@
       <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>15000</v>
       </c>
       <c r="C4" s="19">
@@ -1071,7 +2640,7 @@
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>6</v>
@@ -1097,21 +2666,21 @@
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" s="21">
         <f>IF(OR(ISBLANK(B9),ISBLANK(B2),ISBLANK(B3),ISBLANK(B4),ISBLANK(B5)),"",_xlfn.NORM.INV(B9,B6,B7))</f>
@@ -1122,13 +2691,13 @@
       <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="39">
         <v>14000</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B12" s="22">
         <f>IF(OR(ISBLANK(B11),ISBLANK(B2),ISBLANK(B3),ISBLANK(B4),ISBLANK(B10)),"",_xlfn.NORM.DIST(B11,B6,B7,TRUE))</f>
@@ -1137,8 +2706,8 @@
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="str">
-        <f>CONCATENATE("Version ",'Change Log'!$B$2," - © 2016-2018, William W. Davis, MSPM, PMP")</f>
-        <v>Version 2a - © 2016-2018, William W. Davis, MSPM, PMP</v>
+        <f>CONCATENATE("Version ",'Change Log'!$B$2," – © 2016-2019, William W. Davis, MSPM, PMP")</f>
+        <v>Version 2b – © 2016-2019, William W. Davis, MSPM, PMP</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1152,12 +2721,12 @@
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -1167,12 +2736,12 @@
       <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -1183,7 +2752,7 @@
     </row>
     <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1198,7 +2767,7 @@
     </row>
     <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1213,7 +2782,7 @@
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1228,7 +2797,7 @@
     </row>
     <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1243,7 +2812,7 @@
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1257,9 +2826,6 @@
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30" t="s">
-        <v>26</v>
-      </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1272,1082 +2838,1125 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="29" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>27</v>
+      <c r="A24" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
-        <v>35</v>
+      <c r="A26" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
-        <v>30</v>
+      <c r="A28" s="29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="33">
+      <c r="A29" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
+    </row>
+    <row r="34" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+    </row>
+    <row r="41" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="32">
         <f>IF(AND(B2&gt;0,B3&gt;0,B4&gt;0),ABS(B4-B2)/60,"")</f>
         <v>166.66666666666666</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-    </row>
-    <row r="34" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <f>IF(ISNONTEXT($B$32),A35-$B$32,"")</f>
+      <c r="C42" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35">
+        <f>IF(ISNONTEXT($B$42),A45-$B$42,"")</f>
         <v>1666.6666666666667</v>
       </c>
-      <c r="B34" s="37">
-        <f>IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A34,$B$6,$B$7,FALSE),NA())</f>
+      <c r="B44" s="36">
+        <f>IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A44,$B$6,$B$7,FALSE),NA())</f>
         <v>4.7589471955492955E-9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
-        <f t="shared" ref="A35:A53" si="0">IF(ISNONTEXT($B$32),A36-$B$32,"")</f>
+    <row r="45" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="35">
+        <f t="shared" ref="A45:A63" si="0">IF(ISNONTEXT($B$42),A46-$B$42,"")</f>
         <v>1833.3333333333335</v>
       </c>
-      <c r="B35" s="37">
-        <f t="shared" ref="B35:B98" si="1">IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A35,$B$6,$B$7,FALSE),NA())</f>
+      <c r="B45" s="36">
+        <f t="shared" ref="B45:B108" si="1">IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A45,$B$6,$B$7,FALSE),NA())</f>
         <v>6.8360383563704262E-9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+    <row r="46" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="35">
         <f t="shared" si="0"/>
         <v>2000.0000000000002</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B46" s="36">
         <f t="shared" si="1"/>
         <v>9.7580391175588206E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+    <row r="47" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35">
         <f t="shared" si="0"/>
         <v>2166.666666666667</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B47" s="36">
         <f t="shared" si="1"/>
         <v>1.3841561214028249E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+    <row r="48" spans="1:4" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
         <f t="shared" si="0"/>
         <v>2333.3333333333335</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B48" s="36">
         <f t="shared" si="1"/>
         <v>1.9510664444019439E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+    <row r="49" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="35">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B49" s="36">
         <f t="shared" si="1"/>
         <v>2.7328984906481651E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+    <row r="50" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="35">
         <f t="shared" si="0"/>
         <v>2666.6666666666665</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B50" s="36">
         <f t="shared" si="1"/>
         <v>3.8039903004345657E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+    <row r="51" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35">
         <f t="shared" si="0"/>
         <v>2833.333333333333</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B51" s="36">
         <f t="shared" si="1"/>
         <v>5.2616233968451075E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+    <row r="52" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="35">
         <f t="shared" si="0"/>
         <v>2999.9999999999995</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B52" s="36">
         <f t="shared" si="1"/>
         <v>7.2321025914541911E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+    <row r="53" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35">
         <f t="shared" si="0"/>
         <v>3166.6666666666661</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B53" s="36">
         <f t="shared" si="1"/>
         <v>9.8781099413295371E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+    <row r="54" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35">
         <f t="shared" si="0"/>
         <v>3333.3333333333326</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B54" s="36">
         <f t="shared" si="1"/>
         <v>1.3407493396765429E-7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+    <row r="55" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35">
         <f t="shared" si="0"/>
         <v>3499.9999999999991</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B55" s="36">
         <f t="shared" si="1"/>
         <v>1.8083637265979361E-7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+    <row r="56" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35">
         <f t="shared" si="0"/>
         <v>3666.6666666666656</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B56" s="36">
         <f t="shared" si="1"/>
         <v>2.4237534565845401E-7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+    <row r="57" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="35">
         <f t="shared" si="0"/>
         <v>3833.3333333333321</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B57" s="36">
         <f t="shared" si="1"/>
         <v>3.2281637387270207E-7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+    <row r="58" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="35">
         <f t="shared" si="0"/>
         <v>3999.9999999999986</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B58" s="36">
         <f t="shared" si="1"/>
         <v>4.2725497395945535E-7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+    <row r="59" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35">
         <f t="shared" si="0"/>
         <v>4166.6666666666652</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B59" s="36">
         <f t="shared" si="1"/>
         <v>5.6193121660065745E-7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+    <row r="60" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35">
         <f t="shared" si="0"/>
         <v>4333.3333333333321</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B60" s="36">
         <f t="shared" si="1"/>
         <v>7.3441856966242914E-7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+    <row r="61" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="35">
         <f t="shared" si="0"/>
         <v>4499.9999999999991</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B61" s="36">
         <f t="shared" si="1"/>
         <v>9.5382477551474093E-7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+    <row r="62" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="35">
         <f t="shared" si="0"/>
         <v>4666.6666666666661</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B62" s="36">
         <f t="shared" si="1"/>
         <v>1.2309998716627067E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+    <row r="63" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="35">
         <f t="shared" si="0"/>
         <v>4833.333333333333</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B63" s="36">
         <f t="shared" si="1"/>
         <v>1.5787445900418299E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38">
-        <f>IF(ISNONTEXT($B$32),$B$2,"")</f>
+    <row r="64" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
+        <f>IF(ISNONTEXT($B$42),$B$2,"")</f>
         <v>5000</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B64" s="36">
         <f t="shared" si="1"/>
         <v>2.0120103112751085E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
-        <f>IF(ISNONTEXT($B$32),A54+$B$32,"")</f>
+    <row r="65" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="35">
+        <f>IF(ISNONTEXT($B$42),A64+$B$42,"")</f>
         <v>5166.666666666667</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B65" s="36">
         <f t="shared" si="1"/>
         <v>2.5480795822926338E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
-        <f t="shared" ref="A56:A119" si="2">IF(ISNONTEXT($B$32),A55+$B$32,"")</f>
+    <row r="66" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="35">
+        <f t="shared" ref="A66:A129" si="2">IF(ISNONTEXT($B$42),A65+$B$42,"")</f>
         <v>5333.3333333333339</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B66" s="36">
         <f t="shared" si="1"/>
         <v>3.206714035823925E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+    <row r="67" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35">
         <f t="shared" si="2"/>
         <v>5500.0000000000009</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B67" s="36">
         <f t="shared" si="1"/>
         <v>4.0102545162468349E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+    <row r="68" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="35">
         <f t="shared" si="2"/>
         <v>5666.6666666666679</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B68" s="36">
         <f t="shared" si="1"/>
         <v>4.9836564850807356E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+    <row r="69" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="35">
         <f t="shared" si="2"/>
         <v>5833.3333333333348</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B69" s="36">
         <f t="shared" si="1"/>
         <v>6.1544425422277793E-6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+    <row r="70" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="35">
         <f t="shared" si="2"/>
         <v>6000.0000000000018</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B70" s="36">
         <f t="shared" si="1"/>
         <v>7.5525533630209012E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
+    <row r="71" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="35">
         <f t="shared" si="2"/>
         <v>6166.6666666666688</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B71" s="36">
         <f t="shared" si="1"/>
         <v>9.2100787275030052E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+    <row r="72" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="35">
         <f t="shared" si="2"/>
         <v>6333.3333333333358</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B72" s="36">
         <f t="shared" si="1"/>
         <v>1.1160851807381091E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+    <row r="73" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="35">
         <f t="shared" si="2"/>
         <v>6500.0000000000027</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B73" s="36">
         <f t="shared" si="1"/>
         <v>1.3439892648954611E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+    <row r="74" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="35">
         <f t="shared" si="2"/>
         <v>6666.6666666666697</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B74" s="36">
         <f t="shared" si="1"/>
         <v>1.6082690969176542E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+    <row r="75" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="35">
         <f t="shared" si="2"/>
         <v>6833.3333333333367</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B75" s="36">
         <f t="shared" si="1"/>
         <v>1.9124324019477727E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
+    <row r="76" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="35">
         <f t="shared" si="2"/>
         <v>7000.0000000000036</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B76" s="36">
         <f t="shared" si="1"/>
         <v>2.2598412331698217E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+    <row r="77" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="35">
         <f t="shared" si="2"/>
         <v>7166.6666666666706</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B77" s="36">
         <f t="shared" si="1"/>
         <v>2.6535924500753715E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+    <row r="78" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="35">
         <f t="shared" si="2"/>
         <v>7333.3333333333376</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B78" s="36">
         <f t="shared" si="1"/>
         <v>3.0963851521458801E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
+    <row r="79" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="35">
         <f t="shared" si="2"/>
         <v>7500.0000000000045</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B79" s="36">
         <f t="shared" si="1"/>
         <v>3.5903781203968957E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+    <row r="80" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="35">
         <f t="shared" si="2"/>
         <v>7666.6666666666715</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B80" s="36">
         <f t="shared" si="1"/>
         <v>4.1370413350396681E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+    <row r="81" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35">
         <f t="shared" si="2"/>
         <v>7833.3333333333385</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B81" s="36">
         <f t="shared" si="1"/>
         <v>4.7370066091785265E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+    <row r="82" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="35">
         <f t="shared" si="2"/>
         <v>8000.0000000000055</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B82" s="36">
         <f t="shared" si="1"/>
         <v>5.3899232394440877E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+    <row r="83" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35">
         <f t="shared" si="2"/>
         <v>8166.6666666666724</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B83" s="36">
         <f t="shared" si="1"/>
         <v>6.094325254641129E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="36">
+    <row r="84" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="35">
         <f t="shared" si="2"/>
         <v>8333.3333333333394</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B84" s="36">
         <f t="shared" si="1"/>
         <v>6.8475172737556569E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36">
+    <row r="85" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="35">
         <f t="shared" si="2"/>
         <v>8500.0000000000055</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B85" s="36">
         <f t="shared" si="1"/>
         <v>7.6454861021650364E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36">
+    <row r="86" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="35">
         <f t="shared" si="2"/>
         <v>8666.6666666666715</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B86" s="36">
         <f t="shared" si="1"/>
         <v>8.4828449485695905E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36">
+    <row r="87" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35">
         <f t="shared" si="2"/>
         <v>8833.3333333333376</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B87" s="36">
         <f t="shared" si="1"/>
         <v>9.3528165011429477E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36">
+    <row r="88" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35">
         <f t="shared" si="2"/>
         <v>9000.0000000000036</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B88" s="36">
         <f t="shared" si="1"/>
         <v>1.0247260047763401E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36">
+    <row r="89" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="35">
         <f t="shared" si="2"/>
         <v>9166.6666666666697</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B89" s="36">
         <f t="shared" si="1"/>
         <v>1.115674637561221E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36">
+    <row r="90" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="35">
         <f t="shared" si="2"/>
         <v>9333.3333333333358</v>
       </c>
-      <c r="B80" s="37">
+      <c r="B90" s="36">
         <f t="shared" si="1"/>
         <v>1.2070682381235608E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="36">
+    <row r="91" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="35">
         <f t="shared" si="2"/>
         <v>9500.0000000000018</v>
       </c>
-      <c r="B81" s="37">
+      <c r="B91" s="36">
         <f t="shared" si="1"/>
         <v>1.2977485232469417E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+    <row r="92" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="35">
         <f t="shared" si="2"/>
         <v>9666.6666666666679</v>
       </c>
-      <c r="B82" s="37">
+      <c r="B92" s="36">
         <f t="shared" si="1"/>
         <v>1.3864803643250451E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36">
+    <row r="93" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="35">
         <f t="shared" si="2"/>
         <v>9833.3333333333339</v>
       </c>
-      <c r="B83" s="37">
+      <c r="B93" s="36">
         <f t="shared" si="1"/>
         <v>1.4719781467574592E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="36">
+    <row r="94" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="35">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="B84" s="37">
+      <c r="B94" s="36">
         <f t="shared" si="1"/>
         <v>1.552935652109482E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="36">
+    <row r="95" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="35">
         <f t="shared" si="2"/>
         <v>10166.666666666666</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B95" s="36">
         <f t="shared" si="1"/>
         <v>1.6280585436482338E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="36">
+    <row r="96" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="35">
         <f t="shared" si="2"/>
         <v>10333.333333333332</v>
       </c>
-      <c r="B86" s="37">
+      <c r="B96" s="36">
         <f t="shared" si="1"/>
         <v>1.6960983587816422E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="36">
+    <row r="97" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="35">
         <f t="shared" si="2"/>
         <v>10499.999999999998</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B97" s="36">
         <f t="shared" si="1"/>
         <v>1.7558867803949517E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="36">
+    <row r="98" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="35">
         <f t="shared" si="2"/>
         <v>10666.666666666664</v>
       </c>
-      <c r="B88" s="37">
+      <c r="B98" s="36">
         <f t="shared" si="1"/>
         <v>1.8063688833403456E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
+    <row r="99" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="35">
         <f t="shared" si="2"/>
         <v>10833.33333333333</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B99" s="36">
         <f t="shared" si="1"/>
         <v>1.8466340396181404E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
+    <row r="100" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="35">
         <f t="shared" si="2"/>
         <v>10999.999999999996</v>
       </c>
-      <c r="B90" s="37">
+      <c r="B100" s="36">
         <f t="shared" si="1"/>
         <v>1.8759432196497098E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
+    <row r="101" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="35">
         <f t="shared" si="2"/>
         <v>11166.666666666662</v>
       </c>
-      <c r="B91" s="37">
+      <c r="B101" s="36">
         <f t="shared" si="1"/>
         <v>1.8937515469541417E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+    <row r="102" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="35">
         <f t="shared" si="2"/>
         <v>11333.333333333328</v>
       </c>
-      <c r="B92" s="37">
+      <c r="B102" s="36">
         <f t="shared" si="1"/>
         <v>1.8997251447687273E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="36">
+    <row r="103" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="35">
         <f t="shared" si="2"/>
         <v>11499.999999999995</v>
       </c>
-      <c r="B93" s="37">
+      <c r="B103" s="36">
         <f t="shared" si="1"/>
         <v>1.8937515469541428E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36">
+    <row r="104" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="35">
         <f t="shared" si="2"/>
         <v>11666.666666666661</v>
       </c>
-      <c r="B94" s="37">
+      <c r="B104" s="36">
         <f t="shared" si="1"/>
         <v>1.8759432196497114E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36">
+    <row r="105" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="35">
         <f t="shared" si="2"/>
         <v>11833.333333333327</v>
       </c>
-      <c r="B95" s="37">
+      <c r="B105" s="36">
         <f t="shared" si="1"/>
         <v>1.8466340396181428E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36">
+    <row r="106" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="35">
         <f t="shared" si="2"/>
         <v>11999.999999999993</v>
       </c>
-      <c r="B96" s="37">
+      <c r="B106" s="36">
         <f t="shared" si="1"/>
         <v>1.8063688833403485E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36">
+    <row r="107" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="35">
         <f t="shared" si="2"/>
         <v>12166.666666666659</v>
       </c>
-      <c r="B97" s="37">
+      <c r="B107" s="36">
         <f t="shared" si="1"/>
         <v>1.7558867803949552E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
+    <row r="108" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="35">
         <f t="shared" si="2"/>
         <v>12333.333333333325</v>
       </c>
-      <c r="B98" s="37">
+      <c r="B108" s="36">
         <f t="shared" si="1"/>
         <v>1.6960983587816465E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36">
+    <row r="109" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="35">
         <f t="shared" si="2"/>
         <v>12499.999999999991</v>
       </c>
-      <c r="B99" s="37">
-        <f t="shared" ref="B99:B134" si="3">IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A99,$B$6,$B$7,FALSE),NA())</f>
+      <c r="B109" s="36">
+        <f t="shared" ref="B109:B144" si="3">IF(ISNONTEXT($B$7),_xlfn.NORM.DIST(A109,$B$6,$B$7,FALSE),NA())</f>
         <v>1.6280585436482387E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36">
+    <row r="110" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="35">
         <f t="shared" si="2"/>
         <v>12666.666666666657</v>
       </c>
-      <c r="B100" s="37">
+      <c r="B110" s="36">
         <f t="shared" si="3"/>
         <v>1.5529356521094871E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="36">
+    <row r="111" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="35">
         <f t="shared" si="2"/>
         <v>12833.333333333323</v>
       </c>
-      <c r="B101" s="37">
+      <c r="B111" s="36">
         <f t="shared" si="3"/>
         <v>1.4719781467574647E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="36">
+    <row r="112" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="35">
         <f t="shared" si="2"/>
         <v>12999.999999999989</v>
       </c>
-      <c r="B102" s="37">
+      <c r="B112" s="36">
         <f t="shared" si="3"/>
         <v>1.3864803643250508E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="36">
+    <row r="113" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="35">
         <f t="shared" si="2"/>
         <v>13166.666666666655</v>
       </c>
-      <c r="B103" s="37">
+      <c r="B113" s="36">
         <f t="shared" si="3"/>
         <v>1.2977485232469474E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="36">
+    <row r="114" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="35">
         <f t="shared" si="2"/>
         <v>13333.333333333321</v>
       </c>
-      <c r="B104" s="37">
+      <c r="B114" s="36">
         <f t="shared" si="3"/>
         <v>1.2070682381235666E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="36">
+    <row r="115" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="35">
         <f t="shared" si="2"/>
         <v>13499.999999999987</v>
       </c>
-      <c r="B105" s="37">
+      <c r="B115" s="36">
         <f t="shared" si="3"/>
         <v>1.1156746375612268E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="36">
+    <row r="116" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="35">
         <f t="shared" si="2"/>
         <v>13666.666666666653</v>
       </c>
-      <c r="B106" s="37">
+      <c r="B116" s="36">
         <f t="shared" si="3"/>
         <v>1.0247260047763462E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="36">
+    <row r="117" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="35">
         <f t="shared" si="2"/>
         <v>13833.333333333319</v>
       </c>
-      <c r="B107" s="37">
+      <c r="B117" s="36">
         <f t="shared" si="3"/>
         <v>9.3528165011430047E-5</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="36">
+    <row r="118" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="35">
         <f t="shared" si="2"/>
         <v>13999.999999999985</v>
       </c>
-      <c r="B108" s="37">
+      <c r="B118" s="36">
         <f t="shared" si="3"/>
         <v>8.4828449485696461E-5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="36">
+    <row r="119" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="35">
         <f t="shared" si="2"/>
         <v>14166.666666666652</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B119" s="36">
         <f t="shared" si="3"/>
         <v>7.6454861021650893E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="36">
+    <row r="120" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="35">
         <f t="shared" si="2"/>
         <v>14333.333333333318</v>
       </c>
-      <c r="B110" s="37">
+      <c r="B120" s="36">
         <f t="shared" si="3"/>
         <v>6.8475172737557057E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="36">
+    <row r="121" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="35">
         <f t="shared" si="2"/>
         <v>14499.999999999984</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B121" s="36">
         <f t="shared" si="3"/>
         <v>6.0943252546411812E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="36">
+    <row r="122" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="35">
         <f t="shared" si="2"/>
         <v>14666.66666666665</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B122" s="36">
         <f t="shared" si="3"/>
         <v>5.3899232394441371E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
+    <row r="123" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="35">
         <f t="shared" si="2"/>
         <v>14833.333333333316</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B123" s="36">
         <f t="shared" si="3"/>
         <v>4.7370066091785767E-5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36">
+    <row r="124" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="35">
         <f t="shared" si="2"/>
         <v>14999.999999999982</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B124" s="36">
         <f t="shared" si="3"/>
         <v>4.1370413350397176E-5</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="36">
+    <row r="125" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="35">
         <f t="shared" si="2"/>
         <v>15166.666666666648</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B125" s="36">
         <f t="shared" si="3"/>
         <v>3.5903781203969445E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="36">
+    <row r="126" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="35">
         <f t="shared" si="2"/>
         <v>15333.333333333314</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B126" s="36">
         <f t="shared" si="3"/>
         <v>3.0963851521459248E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="36">
+    <row r="127" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="35">
         <f t="shared" si="2"/>
         <v>15499.99999999998</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B127" s="36">
         <f t="shared" si="3"/>
         <v>2.6535924500754149E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="36">
+    <row r="128" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="35">
         <f t="shared" si="2"/>
         <v>15666.666666666646</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B128" s="36">
         <f t="shared" si="3"/>
         <v>2.259841233169861E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36">
+    <row r="129" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="35">
         <f t="shared" si="2"/>
         <v>15833.333333333312</v>
       </c>
-      <c r="B119" s="37">
+      <c r="B129" s="36">
         <f t="shared" si="3"/>
         <v>1.9124324019478093E-5</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="36">
-        <f t="shared" ref="A120:A134" si="4">IF(ISNONTEXT($B$32),A119+$B$32,"")</f>
+    <row r="130" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="35">
+        <f t="shared" ref="A130:A144" si="4">IF(ISNONTEXT($B$42),A129+$B$42,"")</f>
         <v>15999.999999999978</v>
       </c>
-      <c r="B120" s="37">
+      <c r="B130" s="36">
         <f t="shared" si="3"/>
         <v>1.6082690969176877E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="36">
+    <row r="131" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="35">
         <f t="shared" si="4"/>
         <v>16166.666666666644</v>
       </c>
-      <c r="B121" s="37">
+      <c r="B131" s="36">
         <f t="shared" si="3"/>
         <v>1.3439892648954914E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="36">
+    <row r="132" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="35">
         <f t="shared" si="4"/>
         <v>16333.33333333331</v>
       </c>
-      <c r="B122" s="37">
+      <c r="B132" s="36">
         <f t="shared" si="3"/>
         <v>1.1160851807381359E-5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="36">
+    <row r="133" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="35">
         <f t="shared" si="4"/>
         <v>16499.999999999978</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B133" s="36">
         <f t="shared" si="3"/>
         <v>9.2100787275032271E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="36">
+    <row r="134" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="35">
         <f t="shared" si="4"/>
         <v>16666.666666666646</v>
       </c>
-      <c r="B124" s="37">
+      <c r="B134" s="36">
         <f t="shared" si="3"/>
         <v>7.5525533630210825E-6</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="36">
+    <row r="135" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="35">
         <f t="shared" si="4"/>
         <v>16833.333333333314</v>
       </c>
-      <c r="B125" s="37">
+      <c r="B135" s="36">
         <f t="shared" si="3"/>
         <v>6.1544425422279292E-6</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="36">
+    <row r="136" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="35">
         <f t="shared" si="4"/>
         <v>16999.999999999982</v>
       </c>
-      <c r="B126" s="37">
+      <c r="B136" s="36">
         <f t="shared" si="3"/>
         <v>4.9836564850808551E-6</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="36">
+    <row r="137" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="35">
         <f t="shared" si="4"/>
         <v>17166.66666666665</v>
       </c>
-      <c r="B127" s="37">
+      <c r="B137" s="36">
         <f t="shared" si="3"/>
         <v>4.0102545162469297E-6</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="36">
+    <row r="138" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="35">
         <f t="shared" si="4"/>
         <v>17333.333333333318</v>
       </c>
-      <c r="B128" s="37">
+      <c r="B138" s="36">
         <f t="shared" si="3"/>
         <v>3.2067140358239999E-6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="36">
+    <row r="139" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="35">
         <f t="shared" si="4"/>
         <v>17499.999999999985</v>
       </c>
-      <c r="B129" s="37">
+      <c r="B139" s="36">
         <f t="shared" si="3"/>
         <v>2.5480795822926906E-6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="36">
+    <row r="140" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="35">
         <f t="shared" si="4"/>
         <v>17666.666666666653</v>
       </c>
-      <c r="B130" s="37">
+      <c r="B140" s="36">
         <f t="shared" si="3"/>
         <v>2.0120103112751512E-6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="36">
+    <row r="141" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="35">
         <f t="shared" si="4"/>
         <v>17833.333333333321</v>
       </c>
-      <c r="B131" s="37">
+      <c r="B141" s="36">
         <f t="shared" si="3"/>
         <v>1.5787445900418621E-6</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="36">
+    <row r="142" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="35">
         <f t="shared" si="4"/>
         <v>17999.999999999989</v>
       </c>
-      <c r="B132" s="37">
+      <c r="B142" s="36">
         <f t="shared" si="3"/>
         <v>1.2309998716627309E-6</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="36">
+    <row r="143" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="35">
         <f t="shared" si="4"/>
         <v>18166.666666666657</v>
       </c>
-      <c r="B133" s="37">
+      <c r="B143" s="36">
         <f t="shared" si="3"/>
         <v>9.5382477551475893E-7</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="36">
+    <row r="144" spans="1:2" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="35">
         <f t="shared" si="4"/>
         <v>18333.333333333325</v>
       </c>
-      <c r="B134" s="37">
+      <c r="B144" s="36">
         <f t="shared" si="3"/>
         <v>7.3441856966244216E-7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="iconSet" priority="1">
@@ -2359,13 +3968,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A39" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A15" r:id="rId2" display="http://www.statisticalpert.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A15:D15" r:id="rId3" display="Download more FREE Statistical PERT templates" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A16:D16" r:id="rId4" display="Watch a Pluralsight course on Statistical PERT" xr:uid="{DB61425E-30DB-4873-A644-9AFFF0B3865E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2396,7 +4006,7 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'SPERT® Mobile'!B34:B134</xm:f>
+              <xm:f>'SPERT® Mobile'!B44:B144</xm:f>
               <xm:sqref>B8</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -2432,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -2508,7 +4118,7 @@
     </row>
     <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="26">
         <v>0.2</v>
@@ -2516,7 +4126,7 @@
     </row>
     <row r="10" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E10" s="26">
         <v>0.25</v>
@@ -2524,7 +4134,7 @@
     </row>
     <row r="11" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" s="26">
         <v>0.3</v>
@@ -2532,7 +4142,7 @@
     </row>
     <row r="12" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E12" s="26">
         <v>0.35</v>
@@ -2540,7 +4150,7 @@
     </row>
     <row r="13" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E13" s="26">
         <v>0.4</v>
@@ -2548,7 +4158,7 @@
     </row>
     <row r="14" spans="1:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14" s="26">
         <v>0.45</v>
@@ -2636,10 +4246,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2663,47 +4273,3125 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
-        <v>43394</v>
+        <v>43647</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
+        <v>576</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
-        <v>43370</v>
+        <v>43394</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <v>42739</v>
+        <v>43370</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
+        <v>42739</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>42624</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563B8A81-9CD0-46B2-A009-CC4A18D6D574}">
+  <dimension ref="A1:A676"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="42"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="42"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="42"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="42"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="42"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="42"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="42"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="42"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="42"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="42"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="42" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="42"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="42"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="42"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="42"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="42"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="42"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="42"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="42"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="42"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="42"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="42"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="42"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="42"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="42"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="42"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="42"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="42" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="42"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="42"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="42"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="42"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="42" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="42"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="42"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="42"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="42"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="42"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="42" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="42"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="42" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="42"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="42"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="42"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="42"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="42"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="42"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="42"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="42"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="42"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="42"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="42"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="42"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="42" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="42" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="42"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="42" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="42"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="42"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="42"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="42" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="42"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="42" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="42" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="42"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="42"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="42" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="42" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="42"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="42"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="42" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="42"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="42" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="42"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="42" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="42" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="42"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="42" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="42" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="42" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="42"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="42" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="42" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="42"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="42" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="42"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="42" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="42" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="42"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="42" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="42"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="42" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="42"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="42"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="42" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="42"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="42"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="42" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="42" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="42" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="42" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="42" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="42"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="42" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="42"/>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="42"/>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="42" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="42" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="42" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="42" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="42" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="42"/>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="42" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="42"/>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="42" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="42"/>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="42"/>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="42" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="42"/>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="42" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="42" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="42" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="42" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="42"/>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="42" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="42" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="42"/>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="42" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="42" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="42"/>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="42"/>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="42" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="42" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="42" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="42" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="42" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="42" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="42" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="42"/>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="42"/>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="42" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="42" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="42" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="42" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="42" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="42"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="42" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="42"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="42" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="42" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="42" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="42"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="42" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="42"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="42"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="42"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="42"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="42"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="42"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="42"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="42"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="42"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="42"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="42"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="42"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="42"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="42"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="42"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="42"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="42"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="42"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="42"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="42"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="42"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="42"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="42"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="42"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="42"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="42"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="42"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="42"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="42"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="42"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="42"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="42"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="42"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="42"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="42"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="42"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="42"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="42"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="42"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="42"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="42"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="42"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="42"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="42"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="42"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="42"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="42"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="42"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="42"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="42"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="42"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="42"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="42"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="6"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
